--- a/worksheet3/Entropy.xlsx
+++ b/worksheet3/Entropy.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>A</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>Entropy for one letter</t>
   </si>
   <si>
     <t>Entropy:</t>
@@ -128,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -161,7 +158,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,13 +460,14 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -479,9 +477,6 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -800,7 +795,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f>SUM(C2:C27)</f>
